--- a/Excel Dataframes, EDA and Predictive Modelling/Bundesliga_rank.xlsx
+++ b/Excel Dataframes, EDA and Predictive Modelling/Bundesliga_rank.xlsx
@@ -660,123 +660,123 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>9.706999999999999</v>
+        <v>13.535</v>
       </c>
       <c r="E4" t="n">
-        <v>14.526</v>
+        <v>5.85</v>
       </c>
       <c r="F4" t="n">
         <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K4" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L4" t="n">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="M4" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N4" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.71</v>
+        <v>0.6</v>
       </c>
       <c r="S4" t="n">
-        <v>0.29</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>VfB Stuttgart</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>13.535</v>
+        <v>10.27</v>
       </c>
       <c r="E5" t="n">
-        <v>5.85</v>
+        <v>16.643</v>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="K5" t="n">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="L5" t="n">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="M5" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
@@ -843,7 +843,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>FC Heidenheim</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
@@ -853,19 +853,19 @@
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>2.501</v>
+        <v>6.65</v>
       </c>
       <c r="E7" t="n">
-        <v>5.640000000000001</v>
+        <v>7.353999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
@@ -874,28 +874,28 @@
         <v>1.33</v>
       </c>
       <c r="K7" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L7" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>0.67</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.33</v>
       </c>
       <c r="S7" t="n">
         <v>0.33</v>
@@ -965,129 +965,129 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>FC Heidenheim</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.501</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.640000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
-        <v>7.177</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7.787999999999999</v>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-      <c r="G9" t="n">
-        <v>7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K9" t="n">
+        <v>37</v>
+      </c>
+      <c r="L9" t="n">
+        <v>48</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
         <v>5</v>
       </c>
-      <c r="J9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K9" t="n">
-        <v>50</v>
-      </c>
-      <c r="L9" t="n">
-        <v>57</v>
-      </c>
-      <c r="M9" t="n">
-        <v>9</v>
-      </c>
-      <c r="N9" t="n">
-        <v>11</v>
-      </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="R9" t="n">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="S9" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Mainz 05</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>5.055</v>
+        <v>6.759</v>
       </c>
       <c r="E10" t="n">
-        <v>10.739</v>
+        <v>9.178000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
+        <v>14</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-6</v>
+      </c>
+      <c r="I10" t="n">
         <v>6</v>
       </c>
-      <c r="H10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5</v>
-      </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="L10" t="n">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="M10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N10" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Mainz 05</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
@@ -1097,40 +1097,40 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>6.759</v>
+        <v>6.039</v>
       </c>
       <c r="E11" t="n">
-        <v>9.178000000000001</v>
+        <v>11.78</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H11" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K11" t="n">
+        <v>66</v>
+      </c>
+      <c r="L11" t="n">
+        <v>92</v>
+      </c>
+      <c r="M11" t="n">
         <v>6</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>74</v>
-      </c>
-      <c r="L11" t="n">
-        <v>62</v>
-      </c>
-      <c r="M11" t="n">
-        <v>7</v>
-      </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O11" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="P11" t="n">
         <v>0.17</v>
@@ -1139,7 +1139,7 @@
         <v>0.17</v>
       </c>
       <c r="R11" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="S11" t="n">
         <v>0.67</v>
@@ -1155,55 +1155,55 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>3.038</v>
+        <v>4.069</v>
       </c>
       <c r="E12" t="n">
-        <v>6.291</v>
+        <v>7.941</v>
       </c>
       <c r="F12" t="n">
         <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H12" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K12" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="L12" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="R12" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13">
@@ -1270,129 +1270,129 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>2.502</v>
+        <v>6.745</v>
       </c>
       <c r="E14" t="n">
-        <v>4.502</v>
+        <v>14.261</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H14" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
         <v>0.5</v>
       </c>
       <c r="K14" t="n">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="L14" t="n">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="O14" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>0.5</v>
       </c>
-      <c r="P14" t="n">
+      <c r="S14" t="n">
         <v>0.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>6.745</v>
+        <v>3.235</v>
       </c>
       <c r="E15" t="n">
-        <v>14.261</v>
+        <v>9.082000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K15" t="n">
+        <v>33</v>
+      </c>
+      <c r="L15" t="n">
+        <v>69</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="n">
+        <v>13</v>
+      </c>
+      <c r="O15" t="n">
         <v>0.5</v>
       </c>
-      <c r="K15" t="n">
-        <v>58</v>
-      </c>
-      <c r="L15" t="n">
-        <v>105</v>
-      </c>
-      <c r="M15" t="n">
-        <v>9</v>
-      </c>
-      <c r="N15" t="n">
-        <v>20</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.67</v>
-      </c>
       <c r="P15" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
@@ -1402,19 +1402,19 @@
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>4.943</v>
+        <v>5.16</v>
       </c>
       <c r="E16" t="n">
-        <v>10.3</v>
+        <v>13.713</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H16" t="n">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1423,16 +1423,16 @@
         <v>0.2</v>
       </c>
       <c r="K16" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L16" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M16" t="n">
         <v>6</v>
       </c>
       <c r="N16" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="O16" t="n">
         <v>0.6</v>
@@ -1521,22 +1521,22 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>3.571</v>
+        <v>4.865</v>
       </c>
       <c r="E18" t="n">
-        <v>11.57</v>
+        <v>13.267</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H18" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1545,22 +1545,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L18" t="n">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="P18" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -1575,29 +1575,29 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>5.65</v>
+        <v>0.977</v>
       </c>
       <c r="E19" t="n">
-        <v>8.967000000000001</v>
+        <v>3.28</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1606,22 +1606,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="L19" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="M19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -1636,29 +1636,29 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>3.189</v>
+        <v>5.65</v>
       </c>
       <c r="E20" t="n">
-        <v>6.611000000000001</v>
+        <v>8.967000000000001</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1667,16 +1667,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="L20" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O20" t="n">
         <v>0.5</v>
@@ -1697,29 +1697,29 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>3.555</v>
+        <v>3.189</v>
       </c>
       <c r="E21" t="n">
-        <v>11.271</v>
+        <v>6.611000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H21" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1728,16 +1728,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L21" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
         <v>0.5</v>
@@ -1881,360 +1881,360 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>15.445</v>
+        <v>13.728</v>
       </c>
       <c r="E2" t="n">
-        <v>8.282999999999999</v>
+        <v>6.746</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
         <v>8</v>
       </c>
       <c r="I2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J2" t="n">
-        <v>2.71</v>
+        <v>2.67</v>
       </c>
       <c r="K2" t="n">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="L2" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="M2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>0.57</v>
+        <v>0.33</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.43</v>
+        <v>0.67</v>
       </c>
       <c r="R2" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="S2" t="n">
-        <v>0.29</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>RasenBallsport Leipzig</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.813</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8.695</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23</v>
+      </c>
+      <c r="G3" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
-        <v>18.289</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5.746</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5</v>
-      </c>
       <c r="H3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J3" t="n">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="K3" t="n">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="L3" t="n">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="M3" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="R3" t="n">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="S3" t="n">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>28.808</v>
+        <v>14.956</v>
       </c>
       <c r="E4" t="n">
-        <v>9.656000000000001</v>
+        <v>5.418</v>
       </c>
       <c r="F4" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J4" t="n">
         <v>2.5</v>
       </c>
       <c r="K4" t="n">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="L4" t="n">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="M4" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Borussia M.Gladbach</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>17.128</v>
+        <v>25.709</v>
       </c>
       <c r="E5" t="n">
-        <v>8.946</v>
+        <v>9.268000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="K5" t="n">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="L5" t="n">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="N5" t="n">
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>0.62</v>
+        <v>0.33</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="R5" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="S5" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RasenBallsport Leipzig</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>23.436</v>
+        <v>14.69</v>
       </c>
       <c r="E6" t="n">
-        <v>7.222</v>
+        <v>4.164</v>
       </c>
       <c r="F6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G6" t="n">
         <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I6" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
-        <v>2.38</v>
+        <v>2.17</v>
       </c>
       <c r="K6" t="n">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="L6" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="M6" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
         <v>0.5</v>
       </c>
       <c r="P6" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="R6" t="n">
-        <v>0.62</v>
+        <v>0.83</v>
       </c>
       <c r="S6" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Borussia M.Gladbach</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>17.893</v>
+        <v>16.024</v>
       </c>
       <c r="E7" t="n">
-        <v>3.526</v>
+        <v>7.924</v>
       </c>
       <c r="F7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J7" t="n">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="K7" t="n">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="L7" t="n">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>0.33</v>
+        <v>0.62</v>
       </c>
       <c r="P7" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="R7" t="n">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="S7" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="8">
@@ -2301,123 +2301,123 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.922000000000001</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="F9" t="n">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
-        <v>11.188</v>
-      </c>
-      <c r="E9" t="n">
-        <v>13.362</v>
-      </c>
-      <c r="F9" t="n">
-        <v>13</v>
-      </c>
       <c r="G9" t="n">
+        <v>8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
         <v>10</v>
       </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>17</v>
-      </c>
       <c r="J9" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="L9" t="n">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="M9" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N9" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="S9" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>10.116</v>
+        <v>12.54</v>
       </c>
       <c r="E10" t="n">
-        <v>8.448</v>
+        <v>13.688</v>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G10" t="n">
         <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J10" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="K10" t="n">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="L10" t="n">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="M10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N10" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="11">
@@ -2433,19 +2433,19 @@
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>20.842</v>
+        <v>19.518</v>
       </c>
       <c r="E11" t="n">
-        <v>9.211</v>
+        <v>8.766999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G11" t="n">
         <v>7</v>
       </c>
       <c r="H11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I11" t="n">
         <v>14</v>
@@ -2454,16 +2454,16 @@
         <v>1.75</v>
       </c>
       <c r="K11" t="n">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L11" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M11" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
         <v>0.5</v>
@@ -2484,129 +2484,129 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>14.396</v>
+        <v>8.208</v>
       </c>
       <c r="E12" t="n">
-        <v>7.288</v>
+        <v>5.111</v>
       </c>
       <c r="F12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J12" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="K12" t="n">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="L12" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="M12" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="P12" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="R12" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="S12" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>FC Heidenheim</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>8.438000000000001</v>
+        <v>18.334</v>
       </c>
       <c r="E13" t="n">
-        <v>8.906000000000001</v>
+        <v>8.206</v>
       </c>
       <c r="F13" t="n">
+        <v>13</v>
+      </c>
+      <c r="G13" t="n">
+        <v>9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>13</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K13" t="n">
+        <v>122</v>
+      </c>
+      <c r="L13" t="n">
+        <v>77</v>
+      </c>
+      <c r="M13" t="n">
+        <v>26</v>
+      </c>
+      <c r="N13" t="n">
         <v>10</v>
       </c>
-      <c r="G13" t="n">
-        <v>8</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>74</v>
-      </c>
-      <c r="L13" t="n">
-        <v>63</v>
-      </c>
-      <c r="M13" t="n">
-        <v>8</v>
-      </c>
-      <c r="N13" t="n">
-        <v>11</v>
-      </c>
       <c r="O13" t="n">
-        <v>0.8</v>
+        <v>0.62</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R13" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
@@ -2616,52 +2616,52 @@
         <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>13.277</v>
+        <v>16.463</v>
       </c>
       <c r="E14" t="n">
-        <v>7.109</v>
+        <v>10.243</v>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J14" t="n">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="K14" t="n">
+        <v>127</v>
+      </c>
+      <c r="L14" t="n">
         <v>94</v>
       </c>
-      <c r="L14" t="n">
-        <v>70</v>
-      </c>
       <c r="M14" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N14" t="n">
         <v>9</v>
       </c>
       <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>0.71</v>
       </c>
-      <c r="P14" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="S14" t="n">
         <v>0.29</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.57</v>
       </c>
     </row>
     <row r="15">
@@ -2677,19 +2677,19 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>13.773</v>
+        <v>13.564</v>
       </c>
       <c r="E15" t="n">
-        <v>14.616</v>
+        <v>14.133</v>
       </c>
       <c r="F15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" t="n">
         <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>11</v>
@@ -2698,16 +2698,16 @@
         <v>1.38</v>
       </c>
       <c r="K15" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L15" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="M15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
@@ -2728,108 +2728,108 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>13.973</v>
+        <v>14.492</v>
       </c>
       <c r="E16" t="n">
-        <v>7.447</v>
+        <v>13.748</v>
       </c>
       <c r="F16" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G16" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H16" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J16" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="K16" t="n">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="L16" t="n">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="M16" t="n">
         <v>18</v>
       </c>
       <c r="N16" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="R16" t="n">
-        <v>0.6</v>
+        <v>0.44</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>FC Heidenheim</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>12.642</v>
+        <v>10.53</v>
       </c>
       <c r="E17" t="n">
-        <v>13.12</v>
+        <v>13.066</v>
       </c>
       <c r="F17" t="n">
         <v>13</v>
       </c>
       <c r="G17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="K17" t="n">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="L17" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="M17" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O17" t="n">
         <v>1</v>
@@ -2841,138 +2841,138 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="S17" t="n">
-        <v>0.62</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Mainz 05</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>6.231999999999999</v>
+        <v>13.28</v>
       </c>
       <c r="E18" t="n">
-        <v>6.344</v>
+        <v>7.125</v>
       </c>
       <c r="F18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G18" t="n">
         <v>8</v>
       </c>
       <c r="H18" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="K18" t="n">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="L18" t="n">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M18" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N18" t="n">
         <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="R18" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="S18" t="n">
-        <v>0.8</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>FC Cologne</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>7.349</v>
+        <v>6.491</v>
       </c>
       <c r="E19" t="n">
-        <v>10.789</v>
+        <v>8.177</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H19" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>0.57</v>
+        <v>0.8</v>
       </c>
       <c r="K19" t="n">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="L19" t="n">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N19" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="O19" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="P19" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.43</v>
+        <v>0.2</v>
       </c>
       <c r="S19" t="n">
-        <v>0.57</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Mainz 05</t>
+          <t>FC Cologne</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
@@ -2982,52 +2982,52 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>10.655</v>
+        <v>9.000999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>6.513</v>
+        <v>11.654</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H20" t="n">
         <v>-3</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
       <c r="K20" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="L20" t="n">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="M20" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="O20" t="n">
         <v>0.57</v>
       </c>
       <c r="P20" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="S20" t="n">
         <v>0.43</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0.71</v>
       </c>
     </row>
     <row r="21">
@@ -3040,40 +3040,40 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>3.033</v>
+        <v>1.671</v>
       </c>
       <c r="E21" t="n">
-        <v>3.988</v>
+        <v>2.338</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
         <v>-2</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L21" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O21" t="n">
         <v>1</v>
@@ -3085,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3217,55 +3217,55 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>24.193</v>
+        <v>24.899</v>
       </c>
       <c r="E2" t="n">
-        <v>5.815</v>
+        <v>2.696</v>
       </c>
       <c r="F2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I2" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="L2" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="M2" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>0.43</v>
+        <v>0.17</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.57</v>
+        <v>0.83</v>
       </c>
       <c r="R2" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="S2" t="n">
-        <v>0.29</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3">
@@ -3281,19 +3281,19 @@
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>10.681</v>
+        <v>12.005</v>
       </c>
       <c r="E3" t="n">
-        <v>3.361</v>
+        <v>3.805</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
         <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
         <v>12</v>
@@ -3302,16 +3302,16 @@
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L3" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M3" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>0.75</v>
@@ -3393,251 +3393,251 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RasenBallsport Leipzig</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>11.728</v>
+        <v>9.311</v>
       </c>
       <c r="E5" t="n">
-        <v>9.093999999999999</v>
+        <v>6.074</v>
       </c>
       <c r="F5" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" t="n">
         <v>10</v>
       </c>
-      <c r="I5" t="n">
-        <v>18</v>
-      </c>
       <c r="J5" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="L5" t="n">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="M5" t="n">
         <v>14</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>0.29</v>
+        <v>0.75</v>
       </c>
       <c r="P5" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.57</v>
+        <v>0.25</v>
       </c>
       <c r="R5" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>7.143</v>
+        <v>23.775</v>
       </c>
       <c r="E6" t="n">
-        <v>2.551</v>
+        <v>7.604</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="K6" t="n">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="L6" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="M6" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>10.663</v>
+        <v>5.292999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>6.4</v>
+        <v>1.923</v>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="K7" t="n">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="L7" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="M7" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="R7" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>FC Heidenheim</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>20.676</v>
+        <v>3.167</v>
       </c>
       <c r="E8" t="n">
-        <v>7.216</v>
+        <v>3.601</v>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
         <v>2.33</v>
       </c>
       <c r="K8" t="n">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="L8" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="M8" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="R8" t="n">
         <v>0.67</v>
       </c>
       <c r="S8" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
@@ -3647,19 +3647,19 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>8.952999999999999</v>
+        <v>16.663</v>
       </c>
       <c r="E9" t="n">
-        <v>4.383</v>
+        <v>3.874</v>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I9" t="n">
         <v>14</v>
@@ -3668,98 +3668,98 @@
         <v>2.33</v>
       </c>
       <c r="K9" t="n">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="L9" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="M9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
         <v>0.5</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="Q9" t="n">
         <v>0.5</v>
       </c>
       <c r="R9" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="S9" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>13.33</v>
+        <v>14.022</v>
       </c>
       <c r="E10" t="n">
-        <v>3.546</v>
+        <v>6.381</v>
       </c>
       <c r="F10" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="K10" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L10" t="n">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="M10" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8</v>
+        <v>0.57</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>FC Heidenheim</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
@@ -3769,19 +3769,19 @@
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>4.411</v>
+        <v>5.277</v>
       </c>
       <c r="E11" t="n">
-        <v>6.066</v>
+        <v>4.487</v>
       </c>
       <c r="F11" t="n">
         <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
         <v>6</v>
@@ -3790,13 +3790,13 @@
         <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L11" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N11" t="n">
         <v>7</v>
@@ -3820,123 +3820,123 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>RasenBallsport Leipzig</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.084</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6.175000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>80</v>
+      </c>
+      <c r="L12" t="n">
+        <v>68</v>
+      </c>
+      <c r="M12" t="n">
+        <v>9</v>
+      </c>
+      <c r="N12" t="n">
         <v>6</v>
       </c>
-      <c r="D12" t="n">
-        <v>12.258</v>
-      </c>
-      <c r="E12" t="n">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="F12" t="n">
-        <v>13</v>
-      </c>
-      <c r="G12" t="n">
-        <v>8</v>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-      <c r="I12" t="n">
-        <v>11</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K12" t="n">
-        <v>86</v>
-      </c>
-      <c r="L12" t="n">
-        <v>80</v>
-      </c>
-      <c r="M12" t="n">
-        <v>15</v>
-      </c>
-      <c r="N12" t="n">
-        <v>10</v>
-      </c>
       <c r="O12" t="n">
-        <v>0.67</v>
+        <v>0.2</v>
       </c>
       <c r="P12" t="n">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.17</v>
+        <v>0.6</v>
       </c>
       <c r="R12" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="S12" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>11.815</v>
+        <v>14.533</v>
       </c>
       <c r="E13" t="n">
-        <v>6.177</v>
+        <v>9.962</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J13" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="L13" t="n">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="M13" t="n">
+        <v>18</v>
+      </c>
+      <c r="N13" t="n">
         <v>13</v>
       </c>
-      <c r="N13" t="n">
-        <v>8</v>
-      </c>
       <c r="O13" t="n">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="P13" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="R13" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="S13" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="14">
@@ -3949,122 +3949,122 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>11.985</v>
+        <v>9.747999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>7.318000000000001</v>
+        <v>4.719</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
         <v>5</v>
       </c>
       <c r="I14" t="n">
+        <v>9</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>82</v>
+      </c>
+      <c r="L14" t="n">
+        <v>40</v>
+      </c>
+      <c r="M14" t="n">
         <v>10</v>
       </c>
-      <c r="J14" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="K14" t="n">
-        <v>108</v>
-      </c>
-      <c r="L14" t="n">
-        <v>58</v>
-      </c>
-      <c r="M14" t="n">
-        <v>13</v>
-      </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="P14" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="R14" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="S14" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="n">
+        <v>6</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.553</v>
+      </c>
+      <c r="F15" t="n">
+        <v>11</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6</v>
+      </c>
+      <c r="H15" t="n">
         <v>5</v>
       </c>
-      <c r="D15" t="n">
-        <v>6.176</v>
-      </c>
-      <c r="E15" t="n">
-        <v>6.537</v>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
-      </c>
-      <c r="G15" t="n">
-        <v>8</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J15" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="K15" t="n">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="L15" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="M15" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N15" t="n">
         <v>8</v>
       </c>
       <c r="O15" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="S15" t="n">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Borussia M.Gladbach</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
@@ -4074,19 +4074,19 @@
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>9.715</v>
+        <v>11.453</v>
       </c>
       <c r="E16" t="n">
-        <v>7.439</v>
+        <v>6.451000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
         <v>8</v>
@@ -4095,28 +4095,28 @@
         <v>1.6</v>
       </c>
       <c r="K16" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="L16" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="M16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N16" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="R16" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="S16" t="n">
         <v>0.2</v>
@@ -4125,68 +4125,68 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>10.547</v>
+        <v>8.370000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>6.631</v>
+        <v>8.435</v>
       </c>
       <c r="F17" t="n">
+        <v>11</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
         <v>9</v>
       </c>
-      <c r="G17" t="n">
-        <v>6</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" t="n">
-        <v>8</v>
-      </c>
       <c r="J17" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="K17" t="n">
         <v>77</v>
       </c>
       <c r="L17" t="n">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="M17" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="R17" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="S17" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Mainz 05</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
@@ -4196,19 +4196,19 @@
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>5.105</v>
+        <v>7.225</v>
       </c>
       <c r="E18" t="n">
-        <v>5.318</v>
+        <v>4.643</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
@@ -4217,16 +4217,16 @@
         <v>1.33</v>
       </c>
       <c r="K18" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="L18" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O18" t="n">
         <v>0.67</v>
@@ -4257,10 +4257,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1.618</v>
+        <v>1.362</v>
       </c>
       <c r="E19" t="n">
-        <v>0.388</v>
+        <v>1.65</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -4278,16 +4278,16 @@
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
         <v>1</v>
@@ -4308,62 +4308,62 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Borussia M.Gladbach</t>
+          <t>Mainz 05</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>10.349</v>
+        <v>3.569</v>
       </c>
       <c r="E20" t="n">
-        <v>5.429</v>
+        <v>6.257</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
         <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="K20" t="n">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="L20" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="M20" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="S20" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="21">
@@ -4376,55 +4376,55 @@
         <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>4.378</v>
+        <v>5.233000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>5.760999999999999</v>
+        <v>7.324</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
+        <v>9</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>61</v>
+      </c>
+      <c r="L21" t="n">
+        <v>55</v>
+      </c>
+      <c r="M21" t="n">
         <v>7</v>
       </c>
-      <c r="H21" t="n">
-        <v>-3</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="K21" t="n">
-        <v>46</v>
-      </c>
-      <c r="L21" t="n">
-        <v>46</v>
-      </c>
-      <c r="M21" t="n">
-        <v>6</v>
-      </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O21" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="P21" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="R21" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="S21" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -5163,55 +5163,55 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>9.208</v>
+        <v>7.762</v>
       </c>
       <c r="E12" t="n">
-        <v>25.129</v>
+        <v>22.862</v>
       </c>
       <c r="F12" t="n">
         <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H12" t="n">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="I12" t="n">
         <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="K12" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="L12" t="n">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="M12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N12" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O12" t="n">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
       <c r="P12" t="n">
-        <v>0.38</v>
+        <v>0.29</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="R12" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="S12" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="13">
@@ -5468,22 +5468,22 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>5.647</v>
+        <v>3.166</v>
       </c>
       <c r="E17" t="n">
-        <v>10.586</v>
+        <v>8.089</v>
       </c>
       <c r="F17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H17" t="n">
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -5492,31 +5492,31 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="L17" t="n">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="M17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P17" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="S17" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18">
@@ -5943,184 +5943,184 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>RasenBallsport Leipzig</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>13.907</v>
+        <v>11.273</v>
       </c>
       <c r="E3" t="n">
-        <v>5.543</v>
+        <v>3.845</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="L3" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8</v>
+        <v>0.33</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RasenBallsport Leipzig</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>9.156000000000001</v>
+        <v>15.845</v>
       </c>
       <c r="E4" t="n">
-        <v>3.282</v>
+        <v>12.77</v>
       </c>
       <c r="F4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9</v>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
-      <c r="G4" t="n">
-        <v>3</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="K4" t="n">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="L4" t="n">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="M4" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>14.195</v>
+        <v>16.349</v>
       </c>
       <c r="E5" t="n">
-        <v>11.739</v>
+        <v>7.148</v>
       </c>
       <c r="F5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="K5" t="n">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="L5" t="n">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="M5" t="n">
         <v>21</v>
       </c>
       <c r="N5" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="P5" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="R5" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="S5" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -6136,34 +6136,34 @@
         <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>18.547</v>
+        <v>19.154</v>
       </c>
       <c r="E6" t="n">
-        <v>10.582</v>
+        <v>11.039</v>
       </c>
       <c r="F6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J6" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="K6" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L6" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
         <v>12</v>
@@ -6178,321 +6178,321 @@
         <v>0.11</v>
       </c>
       <c r="R6" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="S6" t="n">
         <v>0.44</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>4.348</v>
+        <v>13.303</v>
       </c>
       <c r="E7" t="n">
-        <v>6.736000000000001</v>
+        <v>14.692</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="K7" t="n">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="L7" t="n">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="M7" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>9.582999999999998</v>
+        <v>4.348</v>
       </c>
       <c r="E8" t="n">
-        <v>9.25</v>
+        <v>6.736000000000001</v>
       </c>
       <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K8" t="n">
+        <v>30</v>
+      </c>
+      <c r="L8" t="n">
+        <v>50</v>
+      </c>
+      <c r="M8" t="n">
+        <v>7</v>
+      </c>
+      <c r="N8" t="n">
         <v>8</v>
       </c>
-      <c r="G8" t="n">
-        <v>10</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="K8" t="n">
-        <v>66</v>
-      </c>
-      <c r="L8" t="n">
-        <v>85</v>
-      </c>
-      <c r="M8" t="n">
-        <v>13</v>
-      </c>
-      <c r="N8" t="n">
-        <v>9</v>
-      </c>
       <c r="O8" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.582999999999998</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I9" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
-        <v>11.608</v>
-      </c>
-      <c r="E9" t="n">
-        <v>13.844</v>
-      </c>
-      <c r="F9" t="n">
-        <v>11</v>
-      </c>
-      <c r="G9" t="n">
-        <v>12</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>8</v>
-      </c>
       <c r="J9" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K9" t="n">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="L9" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N9" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="P9" t="n">
-        <v>0.29</v>
+        <v>0.17</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="R9" t="n">
-        <v>0.43</v>
+        <v>0.67</v>
       </c>
       <c r="S9" t="n">
-        <v>0.57</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>11.894</v>
+        <v>10.732</v>
       </c>
       <c r="E10" t="n">
-        <v>17.497</v>
+        <v>11.111</v>
       </c>
       <c r="F10" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H10" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="K10" t="n">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="L10" t="n">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="M10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N10" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="O10" t="n">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="P10" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="R10" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="S10" t="n">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>FC Cologne</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>6.806</v>
+        <v>11.894</v>
       </c>
       <c r="E11" t="n">
-        <v>16.171</v>
+        <v>17.497</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="K11" t="n">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="L11" t="n">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="M11" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N11" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O11" t="n">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="P11" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.57</v>
+        <v>0.22</v>
       </c>
       <c r="S11" t="n">
-        <v>0.43</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>FC Cologne</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
@@ -6502,19 +6502,19 @@
         <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>11.893</v>
+        <v>6.806</v>
       </c>
       <c r="E12" t="n">
-        <v>11.563</v>
+        <v>16.171</v>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H12" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I12" t="n">
         <v>7</v>
@@ -6523,31 +6523,31 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="L12" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M12" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N12" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="O12" t="n">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.29</v>
+        <v>0.57</v>
       </c>
       <c r="S12" t="n">
-        <v>0.71</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="13">
@@ -6621,244 +6621,244 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>11.194</v>
+        <v>9.968</v>
       </c>
       <c r="E14" t="n">
-        <v>12.492</v>
+        <v>11.16</v>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
         <v>-5</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="L14" t="n">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="M14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O14" t="n">
-        <v>0.38</v>
+        <v>0.29</v>
       </c>
       <c r="P14" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="R14" t="n">
-        <v>0.38</v>
+        <v>0.29</v>
       </c>
       <c r="S14" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>8.818</v>
+        <v>12</v>
       </c>
       <c r="E15" t="n">
-        <v>12.712</v>
+        <v>15.406</v>
       </c>
       <c r="F15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" t="n">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="L15" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M15" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N15" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="O15" t="n">
-        <v>0.71</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P15" t="n">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="S15" t="n">
-        <v>0.71</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C16" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5.177</v>
+      </c>
+      <c r="E16" t="n">
+        <v>12.566</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" t="n">
         <v>9</v>
       </c>
-      <c r="D16" t="n">
-        <v>12</v>
-      </c>
-      <c r="E16" t="n">
-        <v>15.406</v>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
-      </c>
-      <c r="G16" t="n">
-        <v>19</v>
-      </c>
       <c r="H16" t="n">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>77</v>
+      </c>
+      <c r="L16" t="n">
+        <v>97</v>
+      </c>
+      <c r="M16" t="n">
         <v>5</v>
       </c>
-      <c r="J16" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="K16" t="n">
-        <v>120</v>
-      </c>
-      <c r="L16" t="n">
-        <v>129</v>
-      </c>
-      <c r="M16" t="n">
-        <v>16</v>
-      </c>
       <c r="N16" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="P16" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="R16" t="n">
-        <v>0.44</v>
+        <v>0.17</v>
       </c>
       <c r="S16" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>5.177</v>
+        <v>10.617</v>
       </c>
       <c r="E17" t="n">
-        <v>12.566</v>
+        <v>18.186</v>
       </c>
       <c r="F17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G17" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
         <v>0.5</v>
       </c>
       <c r="K17" t="n">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="L17" t="n">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N17" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="P17" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="R17" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="S17" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
@@ -6868,19 +6868,19 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>10.617</v>
+        <v>10.167</v>
       </c>
       <c r="E18" t="n">
-        <v>18.186</v>
+        <v>14.778</v>
       </c>
       <c r="F18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
         <v>15</v>
       </c>
       <c r="H18" t="n">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
@@ -6889,16 +6889,16 @@
         <v>0.5</v>
       </c>
       <c r="K18" t="n">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="L18" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O18" t="n">
         <v>0.75</v>
@@ -6907,13 +6907,13 @@
         <v>0.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0.25</v>
       </c>
       <c r="S18" t="n">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="19">
@@ -7228,19 +7228,19 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>11.572</v>
+        <v>12.051</v>
       </c>
       <c r="E2" t="n">
-        <v>4.262</v>
+        <v>3.848</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="n">
         <v>18</v>
@@ -7249,31 +7249,31 @@
         <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L2" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="M2" t="n">
         <v>15</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -7401,123 +7401,123 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>FC Heidenheim</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4.263</v>
+        <v>12.891</v>
       </c>
       <c r="E5" t="n">
-        <v>3.485</v>
+        <v>4.173999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="L5" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>0.67</v>
+        <v>0.25</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="R5" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="S5" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>FC Heidenheim</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.263</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.485</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K6" t="n">
+        <v>26</v>
+      </c>
+      <c r="L6" t="n">
+        <v>48</v>
+      </c>
+      <c r="M6" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
-        <v>14.113</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5.699</v>
-      </c>
-      <c r="F6" t="n">
-        <v>13</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>99</v>
-      </c>
-      <c r="L6" t="n">
-        <v>64</v>
-      </c>
-      <c r="M6" t="n">
-        <v>19</v>
-      </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="7">
@@ -7584,56 +7584,56 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.852</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.774</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
-        <v>6.845</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4.996</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>8</v>
-      </c>
       <c r="J8" t="n">
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="L8" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="M8" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0.5</v>
@@ -7645,7 +7645,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
@@ -7655,16 +7655,16 @@
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>2.852</v>
+        <v>4.831</v>
       </c>
       <c r="E9" t="n">
-        <v>2.774</v>
+        <v>1.456</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -7676,16 +7676,16 @@
         <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L9" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
@@ -7706,56 +7706,56 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>4.831</v>
+        <v>5.084</v>
       </c>
       <c r="E10" t="n">
-        <v>1.456</v>
+        <v>3.551</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="K10" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="L10" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="M10" t="n">
         <v>7</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R10" t="n">
         <v>0.5</v>
@@ -7767,7 +7767,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>FC Cologne</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
@@ -7777,19 +7777,19 @@
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>5.084</v>
+        <v>7.262</v>
       </c>
       <c r="E11" t="n">
-        <v>3.551</v>
+        <v>5.175000000000001</v>
       </c>
       <c r="F11" t="n">
         <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
         <v>7</v>
@@ -7798,16 +7798,16 @@
         <v>1.75</v>
       </c>
       <c r="K11" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L11" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="M11" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
         <v>0.75</v>
@@ -7819,77 +7819,77 @@
         <v>0.25</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>FC Cologne</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>7.262</v>
+        <v>8.201000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>5.175000000000001</v>
+        <v>9.15</v>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J12" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="K12" t="n">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="L12" t="n">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="M12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N12" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O12" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
@@ -7899,19 +7899,19 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>8.201000000000001</v>
+        <v>7.311</v>
       </c>
       <c r="E13" t="n">
-        <v>9.15</v>
+        <v>12.187</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>10</v>
@@ -7920,16 +7920,16 @@
         <v>1.67</v>
       </c>
       <c r="K13" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="L13" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N13" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O13" t="n">
         <v>0.67</v>
@@ -7950,62 +7950,62 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>7.311</v>
+        <v>5.111</v>
       </c>
       <c r="E14" t="n">
-        <v>12.187</v>
+        <v>4.411</v>
       </c>
       <c r="F14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
         <v>1.67</v>
       </c>
       <c r="K14" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="L14" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="M14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N14" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="S14" t="n">
         <v>0.67</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.33</v>
       </c>
     </row>
     <row r="15">
@@ -8133,7 +8133,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Borussia M.Gladbach</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
@@ -8143,43 +8143,43 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>6.34</v>
+        <v>7.235</v>
       </c>
       <c r="E17" t="n">
-        <v>7.644</v>
+        <v>7.826000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>61</v>
+      </c>
+      <c r="L17" t="n">
+        <v>68</v>
+      </c>
+      <c r="M17" t="n">
         <v>10</v>
       </c>
-      <c r="H17" t="n">
-        <v>-2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K17" t="n">
-        <v>45</v>
-      </c>
-      <c r="L17" t="n">
-        <v>70</v>
-      </c>
-      <c r="M17" t="n">
-        <v>12</v>
-      </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="P17" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q17" t="n">
         <v>0.25</v>
@@ -8188,68 +8188,68 @@
         <v>0.25</v>
       </c>
       <c r="S17" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Mainz 05</t>
+          <t>Borussia M.Gladbach</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>4.841</v>
+        <v>7.891</v>
       </c>
       <c r="E18" t="n">
-        <v>7.315</v>
+        <v>8.733000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G18" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H18" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="K18" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L18" t="n">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="P18" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="R18" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="S18" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="19">
@@ -8316,62 +8316,62 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Mainz 05</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>3.839</v>
+        <v>4.453</v>
       </c>
       <c r="E20" t="n">
-        <v>6.712</v>
+        <v>5.697</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="K20" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="L20" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O20" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="P20" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21">
